--- a/test2/Case/test_case.xlsx
+++ b/test2/Case/test_case.xlsx
@@ -4,18 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="516" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="role" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Tracker" sheetId="3" r:id="rId2"/>
+    <sheet name="Trip replay" sheetId="4" r:id="rId3"/>
+    <sheet name="Timeline" sheetId="5" r:id="rId4"/>
+    <sheet name="Report" sheetId="6" r:id="rId5"/>
+    <sheet name="Alerts" sheetId="7" r:id="rId6"/>
+    <sheet name="Setting-lable" sheetId="8" r:id="rId7"/>
+    <sheet name="Setting-poi" sheetId="11" r:id="rId8"/>
+    <sheet name="Role" sheetId="2" r:id="rId9"/>
+    <sheet name="User" sheetId="9" r:id="rId10"/>
+    <sheet name="Profile" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="181">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,86 +167,802 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "21gh23654@qq.com", "password": "123456"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>获取权限子账号的信息</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/roles</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Operation is successful.</t>
+  </si>
+  <si>
+    <t>无权限获取权限子账号信息</t>
+  </si>
+  <si>
+    <t>Authenticated failed.</t>
+  </si>
+  <si>
+    <t>获取单个子角色信息</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/roles/1105</t>
+  </si>
+  <si>
+    <t>无权限获取单个子角色信息</t>
+  </si>
+  <si>
+    <t>获取角色的所有权限</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/roles/permissions</t>
+  </si>
+  <si>
+    <t>无权限获取角色的所有权限</t>
+  </si>
+  <si>
+    <t>获取所有终端的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取所有终端信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有poi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取所有poi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/pois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/pois</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取所有标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/labels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"username": "zhouyang@supeq.com", "password": "123456"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www-alpha.mycloudhawk.com/api/v1/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "21gh23654@qq.com", "password": "123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>File</t>
+    <t>获取某终端轨迹信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/trip/replay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取某终端轨迹信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为空</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段缺失</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"id"=""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":None,"end_time":1497283199,"id"=898602B12616C0613858}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"id"=None}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/trip/timeline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某终端timeline轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取某终端timeline轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":"","end_time":1497283199,"id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":"","id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":None,"id"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":"","end_time":1497283199,"ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":"","ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"ids"=""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":None,"end_time":1497283199,"ids"=898602B12616C0613858}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":None,"ids"=898602B12616C0613882}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"ids"=None}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取mileage报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限获取报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/report/dashboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>driving_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fuel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取speed报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取温度报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取poi/geo列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取周里程报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":1,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":3,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":2,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":4,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":5,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":6,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":7,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_type":8,"start_time":1497110400,"end_time":1497196799}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的mileage报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的mileage报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的driving_time报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的driving_time报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的fuel报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的fuel报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的speed报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的speed报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的温度报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的温度报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的Maintenance报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部终端的周里程报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个终端的周里程报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/mileage</t>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"start_time":1496246400,"statistics_type":2,"tid":898602B12616C0613882</t>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"start_time":1496246400,"statistics_type":2,"tid":-1}</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/drivingtime/total/multi</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/fuel/multi</t>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"start_time":1496246400,"statistics_type":2,"tid":-1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/fuel</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/mileage/multi</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/drivingtime/total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/speed/averspeed/multi</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/speed/averspeed</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/temperature/multi</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/temperature</t>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"start_time":1496246400,"statistics_type":3,"tid":898602B12616C0613882</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"end_time":1497283199,"start_time":1496246400,"statistics_type":2,"tid":-1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取poi报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Geo报表数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/pgvisit</t>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"type":"geo","id":1762}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"start_time":1497196800,"end_time":1497283199,"type":"poi","id":589}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/maintenances</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/reports/statemileage</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/alerts</t>
+  </si>
+  <si>
+    <t>获取最近告警信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"category":-1,"page":1,"page_size":10,"tid":-1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的告警信息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"category":-1,"end_time":1498147199,"start_time":1498060800,"page":1,"page_size":10,"tid":-1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取单个终端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的告警信息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"category":-1,"end_time":1498147199,"start_time":1498060800,"page":1,"page_size":10,"tid":[898602B12616C0613882]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改终端name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改终端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改终端power saving状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"icon":1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{alias:aaa"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/trackers/64925e442e7b4dd28bda46874f21fe99</t>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/trackers/64925e442e7b4dd28bda46874f21fe99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>获取权限子账号的信息</t>
-  </si>
-  <si>
-    <t>http://www-alpha.mycloudhawk.com/api/v1/roles</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>Operation is successful.</t>
-  </si>
-  <si>
-    <t>无权限获取权限子账号信息</t>
-  </si>
-  <si>
-    <t>Authenticated failed.</t>
-  </si>
-  <si>
-    <t>获取单个子角色信息</t>
-  </si>
-  <si>
-    <t>http://www-alpha.mycloudhawk.com/api/v1/roles/1105</t>
-  </si>
-  <si>
-    <t>无权限获取单个子角色信息</t>
-  </si>
-  <si>
-    <t>获取角色的所有权限</t>
-  </si>
-  <si>
-    <t>http://www-alpha.mycloudhawk.com/api/v1/roles/permissions</t>
-  </si>
-  <si>
-    <t>无权限获取角色的所有权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-alpha.mycloudhawk.com/api/v1/trackers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"power_saving":1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +993,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -358,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -453,6 +1186,49 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,7 +1530,7 @@
   <dimension ref="A1:J642"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -800,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>5</v>
@@ -826,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>5</v>
@@ -5500,12 +6276,2208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="13">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9" style="36"/>
+    <col min="5" max="5" width="9" style="39"/>
+    <col min="6" max="8" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54">
+      <c r="A4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="29">
+        <v>200</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54">
+      <c r="A5" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="29">
+        <v>200</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54">
+      <c r="A6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="29">
+        <v>200</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="54">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="30">
+        <v>400</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54">
+      <c r="A5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="30">
+        <v>400</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54">
+      <c r="A6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30">
+        <v>400</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="30">
+        <v>400</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="30">
+        <v>400</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54">
+      <c r="A9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="30">
+        <v>400</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54">
+      <c r="A10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="30">
+        <v>400</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54">
+      <c r="A11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="30">
+        <v>400</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54">
+      <c r="A12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30">
+        <v>400</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54">
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="30">
+        <v>400</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="24"/>
+      <c r="B14" s="44"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="24"/>
+      <c r="B15" s="44"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="24"/>
+      <c r="B16" s="44"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="44"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="44"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="24"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="24"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="24"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="24"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="24"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="24"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="24"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="24"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="30">
+        <v>400</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54">
+      <c r="A5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="30">
+        <v>400</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54">
+      <c r="A6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30">
+        <v>400</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="30">
+        <v>400</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="30">
+        <v>400</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54">
+      <c r="A9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="30">
+        <v>400</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54">
+      <c r="A10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="30">
+        <v>400</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54">
+      <c r="A11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="30">
+        <v>400</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54">
+      <c r="A12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30">
+        <v>400</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54">
+      <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="30">
+        <v>400</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="38"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="38"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="38"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="38"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="38"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="37.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="30">
+        <v>401</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="A3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="29">
+        <v>200</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.5">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="29">
+        <v>200</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.5">
+      <c r="A5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="29">
+        <v>200</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="29">
+        <v>200</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="29">
+        <v>200</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5">
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="29">
+        <v>200</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5">
+      <c r="A9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="29">
+        <v>200</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5">
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="29">
+        <v>200</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5">
+      <c r="A11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="29">
+        <v>200</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5">
+      <c r="A12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="29">
+        <v>200</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5">
+      <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="29">
+        <v>200</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="29">
+        <v>200</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5">
+      <c r="A15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="29">
+        <v>200</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5">
+      <c r="A16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="29">
+        <v>200</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.5">
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="29">
+        <v>200</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.5">
+      <c r="A18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="29">
+        <v>200</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="40.5">
+      <c r="A19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="29">
+        <v>200</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.5">
+      <c r="A20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="29">
+        <v>200</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="40.5">
+      <c r="A21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="29">
+        <v>200</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="40.5">
+      <c r="A22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="29">
+        <v>200</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="40.5">
+      <c r="A23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="29">
+        <v>200</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="40.5">
+      <c r="A24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="29">
+        <v>200</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="40.5">
+      <c r="A25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="29">
+        <v>200</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="26" style="43" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="9" style="24"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="54">
+      <c r="A3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="29">
+        <v>200</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5">
+      <c r="A4" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="29">
+        <v>200</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42.75">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="44"/>
+      <c r="C4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="44"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="44"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="44"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="44"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="44"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="44"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="44"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="44"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="44"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="44"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="44"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="44"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="44"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="44"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="44"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="44"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="44"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="44"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="44"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="44"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="44"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="44"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="44"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="44"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="44"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="44"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="44"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="16.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="13">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30">
+        <v>401</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5515,174 +8487,175 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9" style="40"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="27">
+      <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="54">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="13">
+        <v>200</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="29">
-        <v>200</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="H2" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.5">
+    <row r="3" spans="1:8" ht="42.75">
       <c r="A3" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="28">
+        <v>49</v>
+      </c>
+      <c r="F3" s="30">
         <v>401</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13">
+        <v>200</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" s="29">
-        <v>200</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="28">
+        <v>49</v>
+      </c>
+      <c r="F5" s="30">
         <v>401</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54">
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13">
+        <v>200</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="29">
-        <v>200</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="28">
+        <v>49</v>
+      </c>
+      <c r="F7" s="30">
         <v>401</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="28">
         <v>0</v>
